--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1683.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1683.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.203130121458612</v>
+        <v>0.986533522605896</v>
       </c>
       <c r="B1">
-        <v>2.706799996638095</v>
+        <v>3.978518486022949</v>
       </c>
       <c r="C1">
-        <v>1.980206977383471</v>
+        <v>2.21148157119751</v>
       </c>
       <c r="D1">
-        <v>1.837382999123666</v>
+        <v>1.67676043510437</v>
       </c>
       <c r="E1">
-        <v>1.734589013413057</v>
+        <v>1.301976442337036</v>
       </c>
     </row>
   </sheetData>
